--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,255 +46,264 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>way</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>1</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>got</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -307,103 +316,103 @@
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>ages</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>games</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
     <t>grandson</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>well</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>well</t>
+    <t>son</t>
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>son</t>
   </si>
   <si>
     <t>year</t>
@@ -767,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -857,16 +866,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -878,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -907,16 +916,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -928,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -936,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8309859154929577</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -954,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -978,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -986,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.828125</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1004,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K6">
-        <v>0.8387096774193549</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L6">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M6">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1028,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1036,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1054,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K7">
-        <v>0.828125</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1078,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1086,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7473118279569892</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1104,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1128,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1136,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1154,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K9">
-        <v>0.6312769010043041</v>
+        <v>0.6197991391678622</v>
       </c>
       <c r="L9">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M9">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1178,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1186,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6650485436893204</v>
+        <v>0.6875</v>
       </c>
       <c r="C10">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1204,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>0.5850622406639004</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L10">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1228,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>200</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1236,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6486486486486487</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1254,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K11">
-        <v>0.5652173913043478</v>
+        <v>0.5767634854771784</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1278,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1286,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1304,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K12">
-        <v>0.5426229508196722</v>
+        <v>0.5422477440525021</v>
       </c>
       <c r="L12">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M12">
         <v>662</v>
@@ -1325,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>558</v>
@@ -1336,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6111111111111112</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1354,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>0.4905660377358491</v>
@@ -1386,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6041666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -1404,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K14">
-        <v>0.4759036144578313</v>
+        <v>0.4434250764525994</v>
       </c>
       <c r="L14">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="M14">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1428,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1436,13 +1445,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5966386554621849</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1454,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K15">
-        <v>0.4603174603174603</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L15">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1478,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,13 +1495,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5952380952380952</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1504,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K16">
-        <v>0.4403669724770642</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="L16">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1528,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1536,13 +1545,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5903614457831325</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1554,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K17">
-        <v>0.3916666666666667</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1578,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1586,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5478260869565217</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C18">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1604,31 +1613,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K18">
-        <v>0.3286713286713286</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1636,13 +1645,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5308056872037915</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="C19">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="D19">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1651,22 +1660,22 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K19">
-        <v>0.3203125</v>
+        <v>0.2890625</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1678,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1686,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5272727272727272</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1704,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K20">
-        <v>0.3064516129032258</v>
+        <v>0.285140562248996</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1728,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>129</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1736,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5111111111111111</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1754,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K21">
-        <v>0.2873563218390804</v>
+        <v>0.28</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1778,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1786,13 +1795,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5079365079365079</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1804,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K22">
-        <v>0.2777777777777778</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1828,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1836,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5039370078740157</v>
+        <v>0.4928909952606635</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1854,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K23">
-        <v>0.248</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1878,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1886,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1904,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K24">
-        <v>0.2409638554216867</v>
+        <v>0.264367816091954</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1928,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>189</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1936,13 +1945,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4842105263157895</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1954,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K25">
-        <v>0.2307692307692308</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1978,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1986,13 +1995,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.46875</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2004,31 +2013,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K26">
-        <v>0.2219298245614035</v>
+        <v>0.2372583479789104</v>
       </c>
       <c r="L26">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M26">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>887</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2036,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4655172413793103</v>
+        <v>0.46875</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2054,31 +2063,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K27">
-        <v>0.1835443037974684</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N27">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2086,37 +2095,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.45</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>33</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K28">
-        <v>0.1753246753246753</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2128,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2136,13 +2145,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4382022471910113</v>
+        <v>0.4453125</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2154,31 +2163,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K29">
-        <v>0.1653645833333333</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="L29">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1282</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2186,49 +2195,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.421875</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>35</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30">
+        <v>0.1753246753246753</v>
+      </c>
+      <c r="L30">
         <v>27</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>27</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>37</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30">
-        <v>0.160857908847185</v>
-      </c>
-      <c r="L30">
-        <v>60</v>
-      </c>
-      <c r="M30">
-        <v>61</v>
-      </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>313</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2236,13 +2245,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.417910447761194</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2254,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K31">
-        <v>0.1480446927374302</v>
+        <v>0.170391061452514</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N31">
         <v>0.98</v>
@@ -2278,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2286,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.405940594059406</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C32">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2304,31 +2313,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K32">
-        <v>0.1137254901960784</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>226</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2336,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3809523809523809</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2354,31 +2363,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K33">
-        <v>0.1096774193548387</v>
+        <v>0.1536458333333333</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="N33">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>276</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2386,13 +2395,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3770491803278688</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2404,31 +2413,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K34">
-        <v>0.1005361930294906</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L34">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>671</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2436,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3768115942028986</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2454,31 +2463,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K35">
-        <v>0.09937888198757763</v>
+        <v>0.109717868338558</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2486,13 +2495,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2504,31 +2513,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K36">
-        <v>0.09057971014492754</v>
+        <v>0.1010452961672474</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
       <c r="O36">
-        <v>0.32</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2536,13 +2545,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2911392405063291</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="C37">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2554,31 +2563,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K37">
-        <v>0.08595988538681948</v>
+        <v>0.09746328437917223</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>319</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2586,13 +2595,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.285</v>
+        <v>0.3514851485148515</v>
       </c>
       <c r="C38">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D38">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2604,31 +2613,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K38">
-        <v>0.07958477508650519</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>266</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2636,49 +2645,49 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2735042735042735</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K39">
-        <v>0.07130124777183601</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N39">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="O39">
-        <v>0.08999999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>521</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2686,13 +2695,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2717391304347826</v>
+        <v>0.325</v>
       </c>
       <c r="C40">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2704,31 +2713,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K40">
-        <v>0.06493506493506493</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N40">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O40">
-        <v>0.3100000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>360</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2736,13 +2745,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2680412371134021</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="C41">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2754,31 +2763,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K41">
-        <v>0.0625</v>
+        <v>0.05437352245862884</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N41">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="O41">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>645</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2786,49 +2795,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2523364485981308</v>
+        <v>0.3144329896907216</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K42">
-        <v>0.05868544600938967</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N42">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O42">
-        <v>0.22</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>401</v>
+        <v>663</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2836,49 +2845,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2446043165467626</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K43">
-        <v>0.05476673427991886</v>
+        <v>0.048582995951417</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O43">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2886,49 +2895,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2412698412698413</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C44">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>239</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K44">
-        <v>0.03288490284005979</v>
-      </c>
-      <c r="L44">
-        <v>22</v>
-      </c>
-      <c r="M44">
-        <v>45</v>
-      </c>
-      <c r="N44">
-        <v>0.49</v>
-      </c>
-      <c r="O44">
-        <v>0.51</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>647</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2936,13 +2921,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2371134020618557</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2954,31 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>74</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45">
-        <v>0.03207810320781032</v>
-      </c>
-      <c r="L45">
-        <v>23</v>
-      </c>
-      <c r="M45">
-        <v>100</v>
-      </c>
-      <c r="N45">
-        <v>0.23</v>
-      </c>
-      <c r="O45">
-        <v>0.77</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>694</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2986,25 +2947,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2334293948126801</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C46">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>266</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3012,25 +2973,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2328042328042328</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>145</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3038,25 +2999,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2324888226527571</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C48">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>515</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3064,13 +3025,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2289719626168224</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3082,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>165</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3090,13 +3051,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2268041237113402</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3108,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3116,25 +3077,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3142,25 +3103,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1987179487179487</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C52">
         <v>31</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3168,25 +3129,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.188034188034188</v>
+        <v>0.2582159624413146</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E53">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3194,25 +3155,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1822916666666667</v>
+        <v>0.2570579494799405</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>157</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3220,25 +3181,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1814159292035398</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="C55">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E55">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>370</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3246,25 +3207,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1810699588477366</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>199</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3272,25 +3233,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.180327868852459</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="C57">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>150</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3298,25 +3259,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1746031746031746</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58">
         <v>24</v>
       </c>
       <c r="E58">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3324,25 +3285,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1692307692307692</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3350,25 +3311,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1688311688311688</v>
+        <v>0.2363112391930836</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D60">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>128</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3376,13 +3337,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1679389312977099</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3394,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3402,25 +3363,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1671388101983003</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="C62">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D62">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>294</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3428,25 +3389,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1639344262295082</v>
+        <v>0.2057522123893805</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D63">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="E63">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>153</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3454,25 +3415,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1628787878787879</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="C64">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D64">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E64">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3480,25 +3441,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1602209944751381</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="C65">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F65">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>304</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3506,25 +3467,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1509433962264151</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E66">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3532,25 +3493,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1419354838709677</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E67">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F67">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3558,25 +3519,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1398963730569948</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E68">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>166</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3584,25 +3545,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1301775147928994</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C69">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F69">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3610,25 +3571,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1264367816091954</v>
+        <v>0.1528925619834711</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D70">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E70">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>152</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3636,25 +3597,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1263736263736264</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="C71">
         <v>23</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E71">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F71">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3662,25 +3623,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1263537906137184</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="C72">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D72">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E72">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F72">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>242</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3688,25 +3649,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.124203821656051</v>
+        <v>0.1432506887052342</v>
       </c>
       <c r="C73">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D73">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E73">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F73">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3714,25 +3675,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1176470588235294</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C74">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E74">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>390</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3740,25 +3701,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1026252983293556</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C75">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="F75">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>376</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3766,25 +3727,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09987029831387809</v>
+        <v>0.1305732484076433</v>
       </c>
       <c r="C76">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D76">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="E76">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F76">
-        <v>0.77</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>694</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3792,25 +3753,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09768211920529801</v>
+        <v>0.1289592760180996</v>
       </c>
       <c r="C77">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D77">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E77">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F77">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>545</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3818,25 +3779,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09761904761904762</v>
+        <v>0.1227436823104693</v>
       </c>
       <c r="C78">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E78">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="F78">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>379</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3844,25 +3805,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08385093167701864</v>
+        <v>0.1118530884808013</v>
       </c>
       <c r="C79">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D79">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E79">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="F79">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>590</v>
+        <v>532</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3870,25 +3831,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.05846774193548387</v>
+        <v>0.1037151702786378</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D80">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E80">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="F80">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>467</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3896,25 +3857,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.05594405594405594</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="C81">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D81">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E81">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="F81">
-        <v>0.5700000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3922,25 +3883,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.05446623093681918</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="C82">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D82">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E82">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="F82">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>434</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3948,25 +3909,103 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03432835820895522</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D83">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E83">
-        <v>0.49</v>
+        <v>0.22</v>
       </c>
       <c r="F83">
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>647</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.07449856733524356</v>
+      </c>
+      <c r="C84">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>28</v>
+      </c>
+      <c r="E84">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F84">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.06882591093117409</v>
+      </c>
+      <c r="C85">
+        <v>34</v>
+      </c>
+      <c r="D85">
+        <v>44</v>
+      </c>
+      <c r="E85">
+        <v>0.23</v>
+      </c>
+      <c r="F85">
+        <v>0.77</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.06828193832599119</v>
+      </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>46</v>
+      </c>
+      <c r="E86">
+        <v>0.33</v>
+      </c>
+      <c r="F86">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
